--- a/data/outputs/management/49.xlsx
+++ b/data/outputs/management/49.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BR32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -891,6 +896,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>5051278</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1305,6 +1316,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1516,6 +1528,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1731,6 +1744,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1938,6 +1952,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2145,6 +2160,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>31676989</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2336,6 +2356,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4497931</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2543,6 +2568,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4490410</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2750,6 +2780,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4488077</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2957,6 +2992,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>5780841</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3176,6 +3216,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4822722</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3383,6 +3428,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>5681128</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3594,6 +3644,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4496773</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3801,6 +3856,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>5768284</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4016,6 +4076,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4524449</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4235,6 +4300,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4473456</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4422,6 +4492,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4641,6 +4712,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4860,6 +4932,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4055205</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5063,6 +5140,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5270,6 +5348,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5477,6 +5556,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5680,6 +5760,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5883,6 +5964,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4203906</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6070,6 +6156,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6281,6 +6368,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6494,6 +6582,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6697,6 +6786,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6916,6 +7006,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7123,6 +7214,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
